--- a/移动端-编辑个人头像测试用例设计.xlsx
+++ b/移动端-编辑个人头像测试用例设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>功能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,10 @@
   <si>
     <t>编辑个人头像成功
 头像更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,9 +298,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -304,6 +305,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -632,7 +636,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="40.5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -644,7 +648,7 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
@@ -654,7 +658,7 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
@@ -664,7 +668,7 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -674,7 +678,7 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
@@ -687,10 +691,10 @@
       <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -758,7 +762,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -772,40 +776,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -832,7 +836,9 @@
       <c r="H2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
